--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3594423333333334</v>
+        <v>0.164296</v>
       </c>
       <c r="H2">
-        <v>1.078327</v>
+        <v>0.492888</v>
       </c>
       <c r="I2">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757333</v>
       </c>
       <c r="J2">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.031135</v>
+        <v>0.9029063333333333</v>
       </c>
       <c r="N2">
-        <v>0.093405</v>
+        <v>2.708719</v>
       </c>
       <c r="O2">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="P2">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="Q2">
-        <v>0.01119123704833333</v>
+        <v>0.1483438989413333</v>
       </c>
       <c r="R2">
-        <v>0.100721133435</v>
+        <v>1.335095090472</v>
       </c>
       <c r="S2">
-        <v>5.168410575911878E-06</v>
+        <v>3.345518624424338E-05</v>
       </c>
       <c r="T2">
-        <v>5.168410575911878E-06</v>
+        <v>3.345518624424338E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3594423333333334</v>
+        <v>0.164296</v>
       </c>
       <c r="H3">
-        <v>1.078327</v>
+        <v>0.492888</v>
       </c>
       <c r="I3">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757333</v>
       </c>
       <c r="J3">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.84225133333334</v>
+        <v>63.06324899999999</v>
       </c>
       <c r="N3">
-        <v>152.526754</v>
+        <v>189.189747</v>
       </c>
       <c r="O3">
-        <v>0.05336181253900263</v>
+        <v>0.05282174972669441</v>
       </c>
       <c r="P3">
-        <v>0.05336181253900264</v>
+        <v>0.0528217497266944</v>
       </c>
       <c r="Q3">
-        <v>18.27485745117312</v>
+        <v>10.361039557704</v>
       </c>
       <c r="R3">
-        <v>164.473717060558</v>
+        <v>93.24935601933599</v>
       </c>
       <c r="S3">
-        <v>0.008439814661775166</v>
+        <v>0.002336668447847962</v>
       </c>
       <c r="T3">
-        <v>0.008439814661775166</v>
+        <v>0.002336668447847962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3594423333333334</v>
+        <v>0.164296</v>
       </c>
       <c r="H4">
-        <v>1.078327</v>
+        <v>0.492888</v>
       </c>
       <c r="I4">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757333</v>
       </c>
       <c r="J4">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757334</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.026591</v>
       </c>
       <c r="O4">
-        <v>9.302918471762789E-06</v>
+        <v>7.424203315745918E-06</v>
       </c>
       <c r="P4">
-        <v>9.302918471762792E-06</v>
+        <v>7.424203315745916E-06</v>
       </c>
       <c r="Q4">
-        <v>0.003185977028555556</v>
+        <v>0.001456264978666667</v>
       </c>
       <c r="R4">
-        <v>0.028673793257</v>
+        <v>0.013106384808</v>
       </c>
       <c r="S4">
-        <v>1.471368830620125E-06</v>
+        <v>3.284234567781582E-07</v>
       </c>
       <c r="T4">
-        <v>1.471368830620125E-06</v>
+        <v>3.284234567781582E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3594423333333334</v>
+        <v>0.164296</v>
       </c>
       <c r="H5">
-        <v>1.078327</v>
+        <v>0.492888</v>
       </c>
       <c r="I5">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757333</v>
       </c>
       <c r="J5">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757334</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>840.1140543333335</v>
+        <v>1100.424519666667</v>
       </c>
       <c r="N5">
-        <v>2520.342163</v>
+        <v>3301.273559</v>
       </c>
       <c r="O5">
-        <v>0.8817471198275839</v>
+        <v>0.9217150954425227</v>
       </c>
       <c r="P5">
-        <v>0.881747119827584</v>
+        <v>0.9217150954425226</v>
       </c>
       <c r="Q5">
-        <v>301.9725559557002</v>
+        <v>180.7953468831547</v>
       </c>
       <c r="R5">
-        <v>2717.753003601301</v>
+        <v>1627.158121948392</v>
       </c>
       <c r="S5">
-        <v>0.139458948559133</v>
+        <v>0.0407737833859995</v>
       </c>
       <c r="T5">
-        <v>0.139458948559133</v>
+        <v>0.0407737833859995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3594423333333334</v>
+        <v>0.164296</v>
       </c>
       <c r="H6">
-        <v>1.078327</v>
+        <v>0.492888</v>
       </c>
       <c r="I6">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757333</v>
       </c>
       <c r="J6">
-        <v>0.1581620687192068</v>
+        <v>0.04423686189757334</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.787136</v>
+        <v>29.488383</v>
       </c>
       <c r="N6">
-        <v>185.361408</v>
+        <v>88.465149</v>
       </c>
       <c r="O6">
-        <v>0.06484908677504263</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="P6">
-        <v>0.06484908677504264</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="Q6">
-        <v>22.208912333824</v>
+        <v>4.844823373368</v>
       </c>
       <c r="R6">
-        <v>199.880211004416</v>
+        <v>43.603410360312</v>
       </c>
       <c r="S6">
-        <v>0.0102566657188921</v>
+        <v>0.001092626454024851</v>
       </c>
       <c r="T6">
-        <v>0.0102566657188921</v>
+        <v>0.001092626454024851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1597736666666667</v>
+        <v>0.9811059999999999</v>
       </c>
       <c r="H7">
-        <v>0.479321</v>
+        <v>2.943318</v>
       </c>
       <c r="I7">
-        <v>0.07030372135776897</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="J7">
-        <v>0.07030372135776895</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.031135</v>
+        <v>0.9029063333333333</v>
       </c>
       <c r="N7">
-        <v>0.093405</v>
+        <v>2.708719</v>
       </c>
       <c r="O7">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="P7">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="Q7">
-        <v>0.004974553111666667</v>
+        <v>0.8858468210713332</v>
       </c>
       <c r="R7">
-        <v>0.044770978005</v>
+        <v>7.972621389641999</v>
       </c>
       <c r="S7">
-        <v>2.297380781207052E-06</v>
+        <v>0.0001997801769692789</v>
       </c>
       <c r="T7">
-        <v>2.297380781207052E-06</v>
+        <v>0.0001997801769692789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1597736666666667</v>
+        <v>0.9811059999999999</v>
       </c>
       <c r="H8">
-        <v>0.479321</v>
+        <v>2.943318</v>
       </c>
       <c r="I8">
-        <v>0.07030372135776897</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="J8">
-        <v>0.07030372135776895</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.84225133333334</v>
+        <v>63.06324899999999</v>
       </c>
       <c r="N8">
-        <v>152.526754</v>
+        <v>189.189747</v>
       </c>
       <c r="O8">
-        <v>0.05336181253900263</v>
+        <v>0.05282174972669441</v>
       </c>
       <c r="P8">
-        <v>0.05336181253900264</v>
+        <v>0.0528217497266944</v>
       </c>
       <c r="Q8">
-        <v>8.12325291711489</v>
+        <v>61.87173197339398</v>
       </c>
       <c r="R8">
-        <v>73.109276254034</v>
+        <v>556.8455877605459</v>
       </c>
       <c r="S8">
-        <v>0.003751533999887543</v>
+        <v>0.01395359250495644</v>
       </c>
       <c r="T8">
-        <v>0.003751533999887543</v>
+        <v>0.01395359250495644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1597736666666667</v>
+        <v>0.9811059999999999</v>
       </c>
       <c r="H9">
-        <v>0.479321</v>
+        <v>2.943318</v>
       </c>
       <c r="I9">
-        <v>0.07030372135776897</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="J9">
-        <v>0.07030372135776895</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.026591</v>
       </c>
       <c r="O9">
-        <v>9.302918471762789E-06</v>
+        <v>7.424203315745918E-06</v>
       </c>
       <c r="P9">
-        <v>9.302918471762792E-06</v>
+        <v>7.424203315745916E-06</v>
       </c>
       <c r="Q9">
-        <v>0.001416180523444445</v>
+        <v>0.008696196548666666</v>
       </c>
       <c r="R9">
-        <v>0.012745624711</v>
+        <v>0.078265768938</v>
       </c>
       <c r="S9">
-        <v>6.54029788052853E-07</v>
+        <v>1.961205531393288E-06</v>
       </c>
       <c r="T9">
-        <v>6.540297880528531E-07</v>
+        <v>1.961205531393288E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1597736666666667</v>
+        <v>0.9811059999999999</v>
       </c>
       <c r="H10">
-        <v>0.479321</v>
+        <v>2.943318</v>
       </c>
       <c r="I10">
-        <v>0.07030372135776897</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="J10">
-        <v>0.07030372135776895</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>840.1140543333335</v>
+        <v>1100.424519666667</v>
       </c>
       <c r="N10">
-        <v>2520.342163</v>
+        <v>3301.273559</v>
       </c>
       <c r="O10">
-        <v>0.8817471198275839</v>
+        <v>0.9217150954425227</v>
       </c>
       <c r="P10">
-        <v>0.881747119827584</v>
+        <v>0.9217150954425226</v>
       </c>
       <c r="Q10">
-        <v>134.2281028790359</v>
+        <v>1079.633098792084</v>
       </c>
       <c r="R10">
-        <v>1208.052925911323</v>
+        <v>9716.69788912876</v>
       </c>
       <c r="S10">
-        <v>0.06199010382037378</v>
+        <v>0.2434837337653042</v>
       </c>
       <c r="T10">
-        <v>0.06199010382037378</v>
+        <v>0.2434837337653042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1597736666666667</v>
+        <v>0.9811059999999999</v>
       </c>
       <c r="H11">
-        <v>0.479321</v>
+        <v>2.943318</v>
       </c>
       <c r="I11">
-        <v>0.07030372135776897</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="J11">
-        <v>0.07030372135776895</v>
+        <v>0.264163769226765</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>61.787136</v>
+        <v>29.488383</v>
       </c>
       <c r="N11">
-        <v>185.361408</v>
+        <v>88.465149</v>
       </c>
       <c r="O11">
-        <v>0.06484908677504263</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="P11">
-        <v>0.06484908677504264</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="Q11">
-        <v>9.871957271552001</v>
+        <v>28.931229491598</v>
       </c>
       <c r="R11">
-        <v>88.847615443968</v>
+        <v>260.381065424382</v>
       </c>
       <c r="S11">
-        <v>0.004559132126938378</v>
+        <v>0.006524701574003662</v>
       </c>
       <c r="T11">
-        <v>0.004559132126938378</v>
+        <v>0.006524701574003661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.610258</v>
+        <v>2.382039</v>
       </c>
       <c r="H12">
-        <v>4.830774</v>
+        <v>7.146117</v>
       </c>
       <c r="I12">
-        <v>0.7085468594915619</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="J12">
-        <v>0.7085468594915618</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.031135</v>
+        <v>0.9029063333333333</v>
       </c>
       <c r="N12">
-        <v>0.093405</v>
+        <v>2.708719</v>
       </c>
       <c r="O12">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="P12">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="Q12">
-        <v>0.05013538283</v>
+        <v>2.150758099347</v>
       </c>
       <c r="R12">
-        <v>0.45121844547</v>
+        <v>19.356822894123</v>
       </c>
       <c r="S12">
-        <v>2.315385169010896E-05</v>
+        <v>0.0004850486827801728</v>
       </c>
       <c r="T12">
-        <v>2.315385169010896E-05</v>
+        <v>0.0004850486827801728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.610258</v>
+        <v>2.382039</v>
       </c>
       <c r="H13">
-        <v>4.830774</v>
+        <v>7.146117</v>
       </c>
       <c r="I13">
-        <v>0.7085468594915619</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="J13">
-        <v>0.7085468594915618</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.84225133333334</v>
+        <v>63.06324899999999</v>
       </c>
       <c r="N13">
-        <v>152.526754</v>
+        <v>189.189747</v>
       </c>
       <c r="O13">
-        <v>0.05336181253900263</v>
+        <v>0.05282174972669441</v>
       </c>
       <c r="P13">
-        <v>0.05336181253900264</v>
+        <v>0.0528217497266944</v>
       </c>
       <c r="Q13">
-        <v>81.86914194751067</v>
+        <v>150.219118584711</v>
       </c>
       <c r="R13">
-        <v>736.822277527596</v>
+        <v>1351.972067262399</v>
       </c>
       <c r="S13">
-        <v>0.03780934469128776</v>
+        <v>0.03387809424966715</v>
       </c>
       <c r="T13">
-        <v>0.03780934469128776</v>
+        <v>0.03387809424966714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610258</v>
+        <v>2.382039</v>
       </c>
       <c r="H14">
-        <v>4.830774</v>
+        <v>7.146117</v>
       </c>
       <c r="I14">
-        <v>0.7085468594915619</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="J14">
-        <v>0.7085468594915618</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.026591</v>
       </c>
       <c r="O14">
-        <v>9.302918471762789E-06</v>
+        <v>7.424203315745918E-06</v>
       </c>
       <c r="P14">
-        <v>9.302918471762792E-06</v>
+        <v>7.424203315745916E-06</v>
       </c>
       <c r="Q14">
-        <v>0.01427279015933333</v>
+        <v>0.021113599683</v>
       </c>
       <c r="R14">
-        <v>0.128455111434</v>
+        <v>0.190022397147</v>
       </c>
       <c r="S14">
-        <v>6.591553667273565E-06</v>
+        <v>4.761634382823606E-06</v>
       </c>
       <c r="T14">
-        <v>6.591553667273567E-06</v>
+        <v>4.761634382823606E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610258</v>
+        <v>2.382039</v>
       </c>
       <c r="H15">
-        <v>4.830774</v>
+        <v>7.146117</v>
       </c>
       <c r="I15">
-        <v>0.7085468594915619</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="J15">
-        <v>0.7085468594915618</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>840.1140543333335</v>
+        <v>1100.424519666667</v>
       </c>
       <c r="N15">
-        <v>2520.342163</v>
+        <v>3301.273559</v>
       </c>
       <c r="O15">
-        <v>0.8817471198275839</v>
+        <v>0.9217150954425227</v>
       </c>
       <c r="P15">
-        <v>0.881747119827584</v>
+        <v>0.9217150954425226</v>
       </c>
       <c r="Q15">
-        <v>1352.800376902685</v>
+        <v>2621.254122402267</v>
       </c>
       <c r="R15">
-        <v>12175.20339212416</v>
+        <v>23591.2871016204</v>
       </c>
       <c r="S15">
-        <v>0.6247591526195645</v>
+        <v>0.5911570714016341</v>
       </c>
       <c r="T15">
-        <v>0.6247591526195645</v>
+        <v>0.591157071401634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610258</v>
+        <v>2.382039</v>
       </c>
       <c r="H16">
-        <v>4.830774</v>
+        <v>7.146117</v>
       </c>
       <c r="I16">
-        <v>0.7085468594915619</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="J16">
-        <v>0.7085468594915618</v>
+        <v>0.6413663770124269</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.787136</v>
+        <v>29.488383</v>
       </c>
       <c r="N16">
-        <v>185.361408</v>
+        <v>88.465149</v>
       </c>
       <c r="O16">
-        <v>0.06484908677504263</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="P16">
-        <v>0.06484908677504264</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="Q16">
-        <v>99.493230041088</v>
+        <v>70.242478352937</v>
       </c>
       <c r="R16">
-        <v>895.4390703697919</v>
+        <v>632.182305176433</v>
       </c>
       <c r="S16">
-        <v>0.04594861677535224</v>
+        <v>0.01584140104396274</v>
       </c>
       <c r="T16">
-        <v>0.04594861677535224</v>
+        <v>0.01584140104396274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1431463333333333</v>
+        <v>0.1865656666666667</v>
       </c>
       <c r="H17">
-        <v>0.429439</v>
+        <v>0.559697</v>
       </c>
       <c r="I17">
-        <v>0.06298735043146231</v>
+        <v>0.05023299186323485</v>
       </c>
       <c r="J17">
-        <v>0.06298735043146229</v>
+        <v>0.05023299186323486</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.031135</v>
+        <v>0.9029063333333333</v>
       </c>
       <c r="N17">
-        <v>0.093405</v>
+        <v>2.708719</v>
       </c>
       <c r="O17">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="P17">
-        <v>3.267793989902611E-05</v>
+        <v>0.0007562739491265452</v>
       </c>
       <c r="Q17">
-        <v>0.004456861088333334</v>
+        <v>0.1684513220158889</v>
       </c>
       <c r="R17">
-        <v>0.04011174979500001</v>
+        <v>1.516061898143</v>
       </c>
       <c r="S17">
-        <v>2.058296851798221E-06</v>
+        <v>3.798990313285023E-05</v>
       </c>
       <c r="T17">
-        <v>2.058296851798221E-06</v>
+        <v>3.798990313285023E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1431463333333333</v>
+        <v>0.1865656666666667</v>
       </c>
       <c r="H18">
-        <v>0.429439</v>
+        <v>0.559697</v>
       </c>
       <c r="I18">
-        <v>0.06298735043146231</v>
+        <v>0.05023299186323485</v>
       </c>
       <c r="J18">
-        <v>0.06298735043146229</v>
+        <v>0.05023299186323486</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>50.84225133333334</v>
+        <v>63.06324899999999</v>
       </c>
       <c r="N18">
-        <v>152.526754</v>
+        <v>189.189747</v>
       </c>
       <c r="O18">
-        <v>0.05336181253900263</v>
+        <v>0.05282174972669441</v>
       </c>
       <c r="P18">
-        <v>0.05336181253900264</v>
+        <v>0.0528217497266944</v>
       </c>
       <c r="Q18">
-        <v>7.277881856778445</v>
+        <v>11.765437091851</v>
       </c>
       <c r="R18">
-        <v>65.50093671100601</v>
+        <v>105.888933826659</v>
       </c>
       <c r="S18">
-        <v>0.003361119186052158</v>
+        <v>0.002653394524222868</v>
       </c>
       <c r="T18">
-        <v>0.003361119186052158</v>
+        <v>0.002653394524222868</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1431463333333333</v>
+        <v>0.1865656666666667</v>
       </c>
       <c r="H19">
-        <v>0.429439</v>
+        <v>0.559697</v>
       </c>
       <c r="I19">
-        <v>0.06298735043146231</v>
+        <v>0.05023299186323485</v>
       </c>
       <c r="J19">
-        <v>0.06298735043146229</v>
+        <v>0.05023299186323486</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1618,22 +1618,22 @@
         <v>0.026591</v>
       </c>
       <c r="O19">
-        <v>9.302918471762789E-06</v>
+        <v>7.424203315745918E-06</v>
       </c>
       <c r="P19">
-        <v>9.302918471762792E-06</v>
+        <v>7.424203315745916E-06</v>
       </c>
       <c r="Q19">
-        <v>0.001268801383222222</v>
+        <v>0.001653655880777778</v>
       </c>
       <c r="R19">
-        <v>0.011419212449</v>
+        <v>0.014882902927</v>
       </c>
       <c r="S19">
-        <v>5.859661858162466E-07</v>
+        <v>3.729399447508659E-07</v>
       </c>
       <c r="T19">
-        <v>5.859661858162466E-07</v>
+        <v>3.729399447508659E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1431463333333333</v>
+        <v>0.1865656666666667</v>
       </c>
       <c r="H20">
-        <v>0.429439</v>
+        <v>0.559697</v>
       </c>
       <c r="I20">
-        <v>0.06298735043146231</v>
+        <v>0.05023299186323485</v>
       </c>
       <c r="J20">
-        <v>0.06298735043146229</v>
+        <v>0.05023299186323486</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>840.1140543333335</v>
+        <v>1100.424519666667</v>
       </c>
       <c r="N20">
-        <v>2520.342163</v>
+        <v>3301.273559</v>
       </c>
       <c r="O20">
-        <v>0.8817471198275839</v>
+        <v>0.9217150954425227</v>
       </c>
       <c r="P20">
-        <v>0.881747119827584</v>
+        <v>0.9217150954425226</v>
       </c>
       <c r="Q20">
-        <v>120.2592464596175</v>
+        <v>205.3014341279581</v>
       </c>
       <c r="R20">
-        <v>1082.333218136557</v>
+        <v>1847.712907151623</v>
       </c>
       <c r="S20">
-        <v>0.05553891482851261</v>
+        <v>0.04630050688958497</v>
       </c>
       <c r="T20">
-        <v>0.05553891482851261</v>
+        <v>0.04630050688958498</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1431463333333333</v>
+        <v>0.1865656666666667</v>
       </c>
       <c r="H21">
-        <v>0.429439</v>
+        <v>0.559697</v>
       </c>
       <c r="I21">
-        <v>0.06298735043146231</v>
+        <v>0.05023299186323485</v>
       </c>
       <c r="J21">
-        <v>0.06298735043146229</v>
+        <v>0.05023299186323486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>61.787136</v>
+        <v>29.488383</v>
       </c>
       <c r="N21">
-        <v>185.361408</v>
+        <v>88.465149</v>
       </c>
       <c r="O21">
-        <v>0.06484908677504263</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="P21">
-        <v>0.06484908677504264</v>
+        <v>0.02469945667834066</v>
       </c>
       <c r="Q21">
-        <v>8.844601965568</v>
+        <v>5.501519833316999</v>
       </c>
       <c r="R21">
-        <v>79.601417690112</v>
+        <v>49.513678499853</v>
       </c>
       <c r="S21">
-        <v>0.004084672153859918</v>
+        <v>0.001240727606349408</v>
       </c>
       <c r="T21">
-        <v>0.004084672153859918</v>
+        <v>0.001240727606349408</v>
       </c>
     </row>
   </sheetData>
